--- a/nop-biz/src/test/resources/io/nop/biz/impl/test_imp2.test.xlsx
+++ b/nop-biz/src/test/resources/io/nop/biz/impl/test_imp2.test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-biz\src\test\resources\io\nop\biz\impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D302F2-F81B-4608-BEF8-0AB14788AFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BEDD35-7F02-4D79-B92D-1E13CF58AFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,7 +663,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -781,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="7">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
@@ -849,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">

--- a/nop-biz/src/test/resources/io/nop/biz/impl/test_imp2.test.xlsx
+++ b/nop-biz/src/test/resources/io/nop/biz/impl/test_imp2.test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-biz\src\test\resources\io\nop\biz\impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BEDD35-7F02-4D79-B92D-1E13CF58AFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E746E25-EFB4-47A7-B7B6-C7A541380514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,7 +663,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
